--- a/uploads/datos.xlsx
+++ b/uploads/datos.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,41 +444,76 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="75" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="97" customWidth="1" min="2" max="2"/>
+    <col width="87" customWidth="1" min="3" max="3"/>
+    <col width="755" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Título</t>
+          <t>Titulo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>Tema</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Año</t>
+          <t>Palabras</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Resumen</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Anomalías vasculares de la mama</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Revista de Senología y Patología Mamaria, 38 (2025) 100638. doi:10.1016/j.senol.2024.100638</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Vascular tumors; Breast tumors; Vascular malformations; Vascular anomalies</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Este artículo de revisión analiza las anomalías vasculares de la mama, un grupo diverso de entidades que van desde alteraciones metabólicas (diabetes, arterioesclerosis) hasta tumores benignos y malignos. Destaca la importancia del diagnóstico diferencial, ya que procesos vasculares no tumorales y tumores benignos pueden simular cáncer de mama, siendo crucial recurrir a pruebas diagnósticas para evitar exploraciones invasivas. Aunque raros, los tumores vasculares malignos son agresivos y deben considerarse. El objetivo es establecer criterios para la sospecha diagnóstica y diferenciación de estas anomalías ante la sospecha de un tumor de mama.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
           <t>Carcinoma micropapilar infiltrante de la mama. Pronóstico a largo plazo</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Cristina Castellet</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>2022</t>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Revista de SenologÃ­a y PatologÃ­a Mamaria, 36 (2023) 100475. doi:10.1016/j.senol.2023.100475</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Invasive Micropapillary Breast Carcinoma; Case-control analysis; Long term survival</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El carcinoma micropapilar infiltrante (CMI) es una variante histológica poco común y potencialmente agresiva del cáncer de mama, caracterizada por su tropismo vascular y linfático. Un estudio retrospectivo comparó a 174 pacientes con CMI y 227 con otros carcinomas convencionales, encontrando que el CMI presenta mayor grado histológico, afectación ganglionar y riesgo de metástasis a distancia. Sin embargo, tras un análisis multivariante que consideró factores pronósticos como edad, tamaño tumoral, afectación ganglionar y grado histológico, no se observaron diferencias significativas en la supervivencia global y libre de enfermedad entre los grupos, sugiriendo que el pronóstico es similar si se consideran las mismas características tumorales.
+</t>
         </is>
       </c>
     </row>

--- a/uploads/datos.xlsx
+++ b/uploads/datos.xlsx
@@ -68,7 +68,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,19 +435,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="75" customWidth="1" min="1" max="1"/>
-    <col width="97" customWidth="1" min="2" max="2"/>
-    <col width="87" customWidth="1" min="3" max="3"/>
-    <col width="755" customWidth="1" min="4" max="4"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -465,11 +459,6 @@
           <t>Palabras</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resumen</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -485,35 +474,6 @@
       <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Vascular tumors; Breast tumors; Vascular malformations; Vascular anomalies</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Este artículo de revisión analiza las anomalías vasculares de la mama, un grupo diverso de entidades que van desde alteraciones metabólicas (diabetes, arterioesclerosis) hasta tumores benignos y malignos. Destaca la importancia del diagnóstico diferencial, ya que procesos vasculares no tumorales y tumores benignos pueden simular cáncer de mama, siendo crucial recurrir a pruebas diagnósticas para evitar exploraciones invasivas. Aunque raros, los tumores vasculares malignos son agresivos y deben considerarse. El objetivo es establecer criterios para la sospecha diagnóstica y diferenciación de estas anomalías ante la sospecha de un tumor de mama.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Carcinoma micropapilar infiltrante de la mama. Pronóstico a largo plazo</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Revista de SenologÃ­a y PatologÃ­a Mamaria, 36 (2023) 100475. doi:10.1016/j.senol.2023.100475</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Invasive Micropapillary Breast Carcinoma; Case-control analysis; Long term survival</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El carcinoma micropapilar infiltrante (CMI) es una variante histológica poco común y potencialmente agresiva del cáncer de mama, caracterizada por su tropismo vascular y linfático. Un estudio retrospectivo comparó a 174 pacientes con CMI y 227 con otros carcinomas convencionales, encontrando que el CMI presenta mayor grado histológico, afectación ganglionar y riesgo de metástasis a distancia. Sin embargo, tras un análisis multivariante que consideró factores pronósticos como edad, tamaño tumoral, afectación ganglionar y grado histológico, no se observaron diferencias significativas en la supervivencia global y libre de enfermedad entre los grupos, sugiriendo que el pronóstico es similar si se consideran las mismas características tumorales.
-</t>
         </is>
       </c>
     </row>

--- a/uploads/datos.xlsx
+++ b/uploads/datos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datos extraídos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Datos extraídos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,29 +451,106 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Autores</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Anio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Tema</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pais</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Palabras</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Resumen</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Anomalías vasculares de la mama</t>
+          <t>Redalyc.La inteligencia emocional y su educación</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Revista de Senología y Patología Mamaria, 38 (2025) 100638. doi:10.1016/j.senol.2024.100638</t>
+          <t xml:space="preserve">Bello-Dávila, Zoe; Rionda-Sánchez, Haydée Damiana; Rodríguez-Pérez, María Emilia
+</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Vascular tumors; Breast tumors; Vascular malformations; Vascular anomalies</t>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>La inteligencia emocional y su educación. VARONA Bello-Dávila, Zoe; Rionda-Sánchez, Haydée Damiana; Rodríguez-Pérez, María Emilia
+núm. 51, julio-diciembre, 2010, pp. 36-43
+Universidad Pedagógica Enrique José Varona La Habana, Cuba</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Inteligencia, inteligencia emocional,  educación emocional.</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El artículo "La inteligencia emocional y su educación", publicado en la revista VARONA en 2010, explora la teoría de la Inteligencia Emocional (IE) y su importancia en la solución inteligente de problemas de la vida, enfatizando las características emocionales sobre las académicas. Los autores, Zoe Bello-Dávila, Haydée Damiana Rionda-Sánchez y María Emilia Rodríguez-Pérez, proponen que el dominio de las emociones propias y el manejo adecuado de las emociones ajenas son recursos inteligentes. Se discute la reformulación de las nociones de inteligencia para diseñar formas más adecuadas de evaluarla y educarla, considerando la complejidad de los recursos utilizados en la solución de problemas. A pesar de ser un constructo relativamente nuevo, la IE ha demostrado beneficios en la calidad del quehacer humano, promoviendo acciones para su educación en diversas edades y contextos. El artículo busca ofrecer reflexiones que sustenten la educación de la inteligencia emocional, revisando las concepciones de la inteligencia hasta llegar a la IE, y proponiendo acciones para su práctica con escolares, padres y maestros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Adopción de buenas prácticas en la educación virtual en la educación superior</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Rodrigo Durán</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Aula Abierta , 43 (2015) 77-86. doi:10.1016/j.aula.2015.01.001</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>

--- a/uploads/datos.xlsx
+++ b/uploads/datos.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,31 +451,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Autores</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Anio</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tema</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Pais</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Palabras</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Resumen</t>
         </is>
       </c>
@@ -488,36 +463,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bello-Dávila, Zoe; Rionda-Sánchez, Haydée Damiana; Rodríguez-Pérez, María Emilia
-</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>La inteligencia emocional y su educación. VARONA Bello-Dávila, Zoe; Rionda-Sánchez, Haydée Damiana; Rodríguez-Pérez, María Emilia
-núm. 51, julio-diciembre, 2010, pp. 36-43
-Universidad Pedagógica Enrique José Varona La Habana, Cuba</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Inteligencia, inteligencia emocional,  educación emocional.</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El artículo "La inteligencia emocional y su educación", publicado en la revista VARONA en 2010, explora la teoría de la Inteligencia Emocional (IE) y su importancia en la solución inteligente de problemas de la vida, enfatizando las características emocionales sobre las académicas. Los autores, Zoe Bello-Dávila, Haydée Damiana Rionda-Sánchez y María Emilia Rodríguez-Pérez, proponen que el dominio de las emociones propias y el manejo adecuado de las emociones ajenas son recursos inteligentes. Se discute la reformulación de las nociones de inteligencia para diseñar formas más adecuadas de evaluarla y educarla, considerando la complejidad de los recursos utilizados en la solución de problemas. A pesar de ser un constructo relativamente nuevo, la IE ha demostrado beneficios en la calidad del quehacer humano, promoviendo acciones para su educación en diversas edades y contextos. El artículo busca ofrecer reflexiones que sustenten la educación de la inteligencia emocional, revisando las concepciones de la inteligencia hasta llegar a la IE, y proponiendo acciones para su práctica con escolares, padres y maestros.
-</t>
         </is>
       </c>
     </row>
@@ -529,28 +475,8 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Rodrigo Durán</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Aula Abierta , 43 (2015) 77-86. doi:10.1016/j.aula.2015.01.001</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Este artículo, publicado en Aula Abierta en 2015, explora la adopción de buenas prácticas en la educación virtual en la educación superior. La investigación, realizada con un docente y diez estudiantes de la Universidad Tecnológica de Panamá, buscó describir el potencial de la educación virtual, emplear el modelo de buenas prácticas educativas de Chickering y Gamson en actividades virtuales, y determinar el impacto de estas prácticas en la didáctica y el aprendizaje. Los resultados indicaron una evaluación favorable de las actividades de educación virtual basadas en buenas prácticas, sugiriendo que este tipo de estrategias aportan resultados positivos en el diseño curricular de la educación virtual, aunque se reconoce la necesidad de ampliar la muestra en futuras investigaciones.
+</t>
         </is>
       </c>
     </row>

--- a/uploads/datos.xlsx
+++ b/uploads/datos.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,26 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Autores</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Anio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tema</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pais</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Resumen</t>
         </is>
       </c>
@@ -463,7 +483,31 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Bello-Dávila, Zoe; Rionda-Sánchez, Haydée Damiana; Rodríguez-Pérez, María Emilia
+</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>La inteligencia emocional y su educación. VARONA Bello-Dávila, Zoe; Rionda-Sánchez, Haydée Damiana; Rodríguez-Pérez, María Emilia
+núm. 51, julio-diciembre, 2010, pp. 36-43
+Universidad Pedagógica Enrique José Varona La Habana, Cuba</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El artículo de Bello-Dávila, Rionda-Sánchez y Rodríguez-Pérez, publicado en la revista VARONA en 2010, explora la teoría de la Inteligencia Emocional (IE) como un factor clave en la solución de problemas y el éxito interpersonal, destacando la importancia del dominio de las emociones propias y el manejo de las de los demás. Se argumenta que la reformulación de las nociones sobre la inteligencia permite desarrollar formas más adecuadas de evaluarla y educarla, considerando la complejidad de los recursos involucrados en la resolución de problemas y el logro de metas. A pesar de ser un constructo relativamente nuevo, la IE ha demostrado tener un impacto significativo en la calidad del quehacer humano, promoviendo el diseño de acciones para su educación en diversas edades y contextos. El artículo ofrece reflexiones que sustentan la educación de la IE y breve reseña de las concepciones de la inteligencia hasta llegar a la IE, incluyendo la visión multidimensional que considera factores personales y contextuales.
+</t>
         </is>
       </c>
     </row>
@@ -475,8 +519,62 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este artículo, publicado en Aula Abierta en 2015, explora la adopción de buenas prácticas en la educación virtual en la educación superior. La investigación, realizada con un docente y diez estudiantes de la Universidad Tecnológica de Panamá, buscó describir el potencial de la educación virtual, emplear el modelo de buenas prácticas educativas de Chickering y Gamson en actividades virtuales, y determinar el impacto de estas prácticas en la didáctica y el aprendizaje. Los resultados indicaron una evaluación favorable de las actividades de educación virtual basadas en buenas prácticas, sugiriendo que este tipo de estrategias aportan resultados positivos en el diseño curricular de la educación virtual, aunque se reconoce la necesidad de ampliar la muestra en futuras investigaciones.
+          <t>Rodrigo Durán</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Aula Abierta , 43 (2015) 77-86. doi:10.1016/j.aula.2015.01.001</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Redalyc.La inteligencia artificial en la educación superior. Oportunidades y amenazas</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">de la Caridad León Rodríguez, Giraldo; Viña Brito, Silvia Margarita
 </t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>La inteligencia artificial en la educación superior. Oportunidades y amenazas. Innova research journal de la Caridad León Rodríguez, Giraldo; Viña Brito, Silvia Margarita
+vol. 2, núm. 8.1, 2017, pp. 412-422
+Universidad Internacional del Ecuador Guayas, Ecuador, Ecuador</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
